--- a/Testformular BB-Test.xlsx
+++ b/Testformular BB-Test.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19320" windowHeight="7700"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19320" windowHeight="7700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vorlage Metadaten bearbeiten" sheetId="1" r:id="rId1"/>
-    <sheet name="Vorlage Kategorien bearbeiten" sheetId="3" r:id="rId2"/>
+    <sheet name="Vorlage Metadaten BB-20250830" sheetId="5" r:id="rId2"/>
+    <sheet name="Vorlage Kategorien bearbeiten" sheetId="3" r:id="rId3"/>
+    <sheet name="Vorlage Kategorien BB-20250830" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="96">
   <si>
     <t>Testfall 1:</t>
   </si>
@@ -91,12 +93,6 @@
     <t>Testformular Black Box Test FS 28 MFE MR MN Inhalt</t>
   </si>
   <si>
-    <t>Testfall 8:</t>
-  </si>
-  <si>
-    <t>Testfall 9:</t>
-  </si>
-  <si>
     <t>Jeder Planner-Benutzer mit berechtigter Rolle für die eig. Org.-Einheit</t>
   </si>
   <si>
@@ -104,21 +100,6 @@
   </si>
   <si>
     <t>Testfall 5:</t>
-  </si>
-  <si>
-    <t>Testfall 6:</t>
-  </si>
-  <si>
-    <t>Testfall 7:</t>
-  </si>
-  <si>
-    <t>Testfall 10:</t>
-  </si>
-  <si>
-    <t>Testfall 11:</t>
-  </si>
-  <si>
-    <t>Testfall 12:</t>
   </si>
   <si>
     <t>Öffnen der Bearbeitungsmaske</t>
@@ -151,9 +132,6 @@
   </si>
   <si>
     <t>Speichern/Änderungen verwerfen</t>
-  </si>
-  <si>
-    <t>Öffnen der Bearbeitungsmaske. Änderung von Daten in allen Feldern uns Klick auf Änderungen verwerfen.</t>
   </si>
   <si>
     <t>Es erscheint ein Fragedialog ob die Änderungen verworfen werden sollen und die Seite neu geladen werden soll. Bei Klick auf Abbrechen passiert nichts, bei Klick auf Verwerfen wird die Seite neu geladen und die "alten Daten" werden angezeigt.</t>
@@ -372,14 +350,6 @@
   <si>
     <t>Es werden die Gesamtdaten geladen und angezeigt.
 Es wird auf Seite 1 gesprungen.</t>
-  </si>
-  <si>
-    <t>Es werden alle Felder angezeigt (Suche, Kategorie wählen, Nur Kategorien bearbeiten, Einzelnes Feld bearbeiten, Speichern und Änderungen verwerfen Button, Zeilen pro Seite, Download Zip, Excel Download)
-Alle Felder außer Speichern Änderungen verwerfen sind bearbeitbar.
-Das Grid ist bearbeitbar.
-Alle Texte werden in deutscher Sparche dargestellt.
-Die Griddaten werden sortiert nach Titel angezeigt.
-Bei Bedarf wird eine horizontale Scrollbar angezeigt, um alle Daten einsehen und bearbeiten zu können.</t>
   </si>
   <si>
     <r>
@@ -466,6 +436,95 @@
   <si>
     <t>GENERELLES zu FILTERN:
 Bei Datenänderungen, sodass die Filterkriterien NICHT mehr der Zeile entsprechen, werden die entsprechenden Zeilen erst NACH dem Speichern weg gefiltert!</t>
+  </si>
+  <si>
+    <t>Weiterleitung auf die Notenarchiv-Suchseite</t>
+  </si>
+  <si>
+    <t>Öffnen der Bearbeitungsmaske. Änderung von Zuordnungen und Klick auf Änderungen verwerfen.</t>
+  </si>
+  <si>
+    <t>Öffnen der Bearbeitungsmaske. Änderung von Daten in allen Feldern und Klick auf Änderungen verwerfen.</t>
+  </si>
+  <si>
+    <t>Erfassen einer neuen Kategorie (Button Neu)</t>
+  </si>
+  <si>
+    <t>Es erscheint ein Fragedialog "Neue Kategorie anlegen". Klick auf Abbrechen schließt den Dialog ohne dass etwas passiert, wenn ein Kategorienname eingegeben wird und auf Speichern geklickt wird, wird danach die Seite neu geladen und die neu angelegte Kategorie ausgewält.</t>
+  </si>
+  <si>
+    <t>Kategorie auswählen. Löschen Button anklicken,</t>
+  </si>
+  <si>
+    <t>Es erscheint ein Rückfragedialog "Soll die gewählte Kategorie … gelöscht werden?
+Bei Klick auf Abbrechen wird nur der Dialog geschlossen.
+Bei Klick auf Löschen wir die Kategorie gelöscht, die Seite neu geladen. Es ist danach KEINE Kategorie gewählt. Suchfilter sollten aktiv sein.</t>
+  </si>
+  <si>
+    <t>Kategorie auswählen. Änderungen von Zuordnungen. Speichern</t>
+  </si>
+  <si>
+    <t>Nach dem auswählen der Kategorie werden die zugeordneten Einträge rechts angezeigt, die nicht zugeordneten links. 
+Die Änderung von Zuornung kann durch Selektion links oder rechts und Klick auf die Zuordnungs-buttons passieren oder durch Doppelklick auf einen Eintrag.
+Nach Änderungen von Zuordnungen sind Speichern und Änderungen verwerfen Button aktiv.
+Nach der Änderung von Zuordnungen und Speichern wird die Ansicht neu geladen. 
+Suchoptionen und ausgewählte Kategorie sind wie zuvor ausgewählt.</t>
+  </si>
+  <si>
+    <t>Suchfilter eingeben</t>
+  </si>
+  <si>
+    <t>Der Suchfilter kann jederzeit geändert werden und wirkt sich nur auf die linke Seite der nicht zugeordneten Einträge aus.
+Wenn ein Suchfilter eingetragen ist und Einträge aus der Zuordnung entfernt werden, die nicht dem Suchfilter entsprechen, werden diese Einträge trotzdem links eingefügt. Erst nach neuerlichem Ändern des Suchfilters wird der Eintrag entfernt.</t>
+  </si>
+  <si>
+    <t>Es werden alle Felder angezeigt (Suche, Kategorie wählen, Neu, Löschen, Änderungen verwerfen, Speichern, Verfügbare Einträge).
+Alle Felder sind aktiviert außer Löschen, Speichern und Änderungen verwerfen.</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>localhost</t>
+  </si>
+  <si>
+    <t>Es werden alle Felder angezeigt (Suche, Kategorie wählen, Nur Kategorien bearbeiten, Einzelnes Feld bearbeiten, Speichern und Änderungen verwerfen Button, Zeilen pro Seite, Download Zip, Excel Download, Seitenblätterer)
+Alle Felder außer Speichern Änderungen verwerfen sind bearbeitbar.
+Das Grid ist bearbeitbar.
+Alle Texte werden in deutscher Sparche dargestellt.
+Die Griddaten werden sortiert nach Titel angezeigt.
+Bei Bedarf wird eine horizontale Scrollbar angezeigt, um alle Daten einsehen und bearbeiten zu können.</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>Modify single field englisch</t>
+  </si>
+  <si>
+    <t>KAT Felder werden nicht rot umrandet</t>
+  </si>
+  <si>
+    <t>Suchfilter ist weg, Kat filter weg</t>
+  </si>
+  <si>
+    <t>Eingabe von Text Kat2: Leere Maske!
+PHP Fatal error:  Uncaught TypeError: Cannot access offset of type string on string in C:\xampp\htdocs\dsvpage\wp-content\themes\astra-child\template-editmeta-sharedfiles copy.php:409</t>
+  </si>
+  <si>
+    <t>Bei der Durchführung von Änderungen wird das Einzelnes Feld bearbeiten" entfernt</t>
+  </si>
+  <si>
+    <t>Bei der Durchführung von Änderungen wird das "Nur Kategorien bearbeiten" entfernt</t>
+  </si>
+  <si>
+    <t>Bei der Durchführung von Änderungen wird die gewählte Kategorie und der Suchtext  entfernt</t>
+  </si>
+  <si>
+    <t>siehe letzte Felder</t>
+  </si>
+  <si>
+    <t>Es wird die Seite anscheinend neu geladen</t>
   </si>
 </sst>
 </file>
@@ -596,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -657,9 +716,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -667,7 +723,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="166">
+  <dxfs count="127">
     <dxf>
       <fill>
         <patternFill>
@@ -676,26 +732,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
@@ -723,6 +759,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
@@ -730,106 +786,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
@@ -838,21 +794,21 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -885,46 +841,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1046,126 +962,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1287,21 +1083,21 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1360,26 +1156,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
@@ -1387,6 +1163,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
@@ -1414,6 +1210,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
@@ -1421,26 +1237,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
@@ -1516,61 +1312,161 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1582,46 +1478,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
@@ -1649,46 +1505,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
@@ -1697,26 +1513,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1744,21 +1540,21 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1790,226 +1586,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
@@ -2017,6 +1593,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
@@ -2025,21 +1621,21 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2071,6 +1667,186 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
@@ -2078,46 +1854,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
@@ -2125,83 +1861,22 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2500,7 +2175,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2510,8 +2185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2527,7 +2202,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -2597,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
@@ -2627,13 +2302,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="8"/>
@@ -2643,13 +2318,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="8"/>
@@ -2659,13 +2334,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="8"/>
@@ -2675,13 +2350,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="8"/>
@@ -2691,10 +2366,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="15"/>
@@ -2713,7 +2388,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
@@ -2743,13 +2418,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="8"/>
@@ -2759,13 +2434,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="8"/>
@@ -2783,7 +2458,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
@@ -2793,7 +2468,7 @@
     <row r="25" spans="1:6" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -2819,13 +2494,13 @@
     <row r="27" spans="1:6" ht="59" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="8"/>
@@ -2833,13 +2508,13 @@
     <row r="28" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="8"/>
@@ -2847,13 +2522,13 @@
     <row r="29" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="B29" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="8"/>
@@ -2861,13 +2536,13 @@
     <row r="30" spans="1:6" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="B30" s="9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="8"/>
@@ -2875,13 +2550,13 @@
     <row r="31" spans="1:6" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="8"/>
@@ -2889,13 +2564,13 @@
     <row r="32" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="B32" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="8"/>
@@ -2903,13 +2578,13 @@
     <row r="33" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
       <c r="B33" s="9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="8"/>
@@ -2917,13 +2592,13 @@
     <row r="34" spans="1:6" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
       <c r="B34" s="9" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="8"/>
@@ -2931,13 +2606,13 @@
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="B35" s="9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="8"/>
@@ -2945,13 +2620,13 @@
     <row r="36" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
       <c r="B36" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="8"/>
@@ -2959,13 +2634,13 @@
     <row r="37" spans="1:6" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
       <c r="B37" s="9" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>39</v>
+        <v>48</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="8"/>
@@ -2973,13 +2648,13 @@
     <row r="38" spans="1:6" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
       <c r="B38" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>39</v>
+        <v>49</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="8"/>
@@ -2987,13 +2662,13 @@
     <row r="39" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="8"/>
       <c r="B39" s="9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>39</v>
+        <v>64</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="8"/>
@@ -3002,7 +2677,7 @@
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="23"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="15"/>
       <c r="F40" s="8"/>
     </row>
@@ -3010,7 +2685,7 @@
       <c r="A41" s="8"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="23"/>
+      <c r="D41" s="22"/>
       <c r="E41" s="15"/>
       <c r="F41" s="8"/>
     </row>
@@ -3024,10 +2699,10 @@
     </row>
     <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
@@ -3055,13 +2730,13 @@
     <row r="46" spans="1:6" ht="59" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="8"/>
       <c r="B46" s="9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="8"/>
@@ -3069,10 +2744,10 @@
     <row r="47" spans="1:6" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="8"/>
       <c r="B47" s="9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="15"/>
@@ -3088,10 +2763,10 @@
     </row>
     <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
@@ -3119,10 +2794,10 @@
     <row r="52" spans="1:6" ht="59" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="8"/>
       <c r="B52" s="9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="15"/>
@@ -3131,10 +2806,10 @@
     <row r="53" spans="1:6" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="8"/>
       <c r="B53" s="9" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="15"/>
@@ -3159,170 +2834,170 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="E1:E16 E20:E22 E27:E31 E48">
-    <cfRule type="cellIs" dxfId="147" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="169" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="170" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E22 E27:E31 E48">
-    <cfRule type="cellIs" dxfId="145" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="168" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="144" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="255" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="256" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E16">
-    <cfRule type="cellIs" dxfId="142" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="185" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:E53">
-    <cfRule type="cellIs" dxfId="141" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="152" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50:E53">
-    <cfRule type="cellIs" dxfId="140" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="150" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="151" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="138" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="153" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="154" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="cellIs" dxfId="136" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="145" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="146" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="134" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="148" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="149" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E26">
-    <cfRule type="cellIs" dxfId="132" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="140" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="141" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="130" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="143" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="144" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44:E45">
-    <cfRule type="cellIs" dxfId="128" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="135" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="136" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="126" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="138" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="139" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="124" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="133" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="134" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="84" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="17" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="18" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="82" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="16" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:E42">
-    <cfRule type="cellIs" dxfId="81" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="11" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="12" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:E42">
-    <cfRule type="cellIs" dxfId="79" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="10" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:E47">
-    <cfRule type="cellIs" dxfId="78" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="7" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="8" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:E47">
-    <cfRule type="cellIs" dxfId="76" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="9" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="75" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="6" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="74" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="4" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="5" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="72" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="2" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="3" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="70" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3333,10 +3008,946 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.54296875" customWidth="1"/>
+    <col min="2" max="2" width="68.81640625" customWidth="1"/>
+    <col min="3" max="3" width="69" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" customWidth="1"/>
+    <col min="6" max="6" width="49.1796875" customWidth="1"/>
+    <col min="7" max="7" width="84.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.45">
+      <c r="A3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="18">
+        <v>45899</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="131.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="59" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="73.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="15"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="59" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="59" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="20"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="20"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E1:E16 E20 E27:E28 E48 E22 E31">
+    <cfRule type="cellIs" dxfId="86" priority="57" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="58" operator="equal">
+      <formula>"nok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20 E27:E28 E48 E22 E31">
+    <cfRule type="cellIs" dxfId="84" priority="56" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="83" priority="60" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="61" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E16">
+    <cfRule type="cellIs" dxfId="81" priority="59" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50:E51">
+    <cfRule type="cellIs" dxfId="79" priority="51" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="52" operator="equal">
+      <formula>"nok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="77" priority="54" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="55" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E19">
+    <cfRule type="cellIs" dxfId="75" priority="47" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="48" operator="equal">
+      <formula>"nok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="73" priority="49" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="50" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:E26">
+    <cfRule type="cellIs" dxfId="71" priority="43" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="44" operator="equal">
+      <formula>"nok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="69" priority="45" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="46" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44:E45">
+    <cfRule type="cellIs" dxfId="67" priority="39" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="40" operator="equal">
+      <formula>"nok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="65" priority="41" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="42" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="63" priority="37" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="38" operator="equal">
+      <formula>"nok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34:E42">
+    <cfRule type="cellIs" dxfId="61" priority="32" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="33" operator="equal">
+      <formula>"nok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34:E42">
+    <cfRule type="cellIs" dxfId="59" priority="31" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="cellIs" dxfId="58" priority="28" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="29" operator="equal">
+      <formula>"nok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="cellIs" dxfId="56" priority="30" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="55" priority="27" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="54" priority="25" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="26" operator="equal">
+      <formula>"nok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="52" priority="23" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="24" operator="equal">
+      <formula>"nok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="50" priority="22" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="49" priority="20" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="21" operator="equal">
+      <formula>"nok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="47" priority="19" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="46" priority="17" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="18" operator="equal">
+      <formula>"nok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="44" priority="16" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="43" priority="14" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="15" operator="equal">
+      <formula>"nok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="41" priority="13" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="40" priority="8" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
+      <formula>"nok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+      <formula>"nok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"nok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3421,7 +4032,9 @@
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
         <v>19</v>
@@ -3438,7 +4051,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>3</v>
@@ -3448,26 +4061,47 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="A11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E11" s="15"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+    <row r="12" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+    <row r="13" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="8"/>
     </row>
@@ -3479,1008 +4113,516 @@
       <c r="E14" s="15"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="8"/>
-    </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="59" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="8">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+    <row r="19" spans="1:6" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="D19" s="9"/>
       <c r="E19" s="15"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+    <row r="20" spans="1:6" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="D20" s="9"/>
       <c r="E20" s="15"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+    <row r="21" spans="1:6" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="D21" s="9"/>
       <c r="E21" s="15"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+    <row r="22" spans="1:6" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="D22" s="9"/>
       <c r="E22" s="15"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
+  </sheetData>
+  <conditionalFormatting sqref="E1:E14">
+    <cfRule type="cellIs" dxfId="37" priority="69" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="70" operator="equal">
+      <formula>"nok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="35" priority="72" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="73" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E14">
+    <cfRule type="cellIs" dxfId="33" priority="71" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E17 E20:E22">
+    <cfRule type="cellIs" dxfId="32" priority="58" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="59" operator="equal">
+      <formula>"nok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="30" priority="61" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="62" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:E22">
+    <cfRule type="cellIs" dxfId="28" priority="60" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E19">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+      <formula>"nok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E19">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D22:D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.54296875" customWidth="1"/>
+    <col min="2" max="2" width="68.81640625" customWidth="1"/>
+    <col min="3" max="3" width="69" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" customWidth="1"/>
+    <col min="6" max="6" width="49.1796875" customWidth="1"/>
+    <col min="7" max="7" width="84.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.45">
+      <c r="A3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="18">
+        <v>45899</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="4" t="s">
+    <row r="17" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="D17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="4" t="s">
+    <row r="18" spans="1:6" ht="59" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="8">
         <v>1</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="20"/>
-    </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="2" t="s">
+      <c r="B18" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="8"/>
-    </row>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="8"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="20"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="20"/>
-    </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="8"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="8"/>
-    </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="8"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="8"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="20"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="20"/>
-    </row>
-    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="8"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="8"/>
-    </row>
-    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="8"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="8"/>
-    </row>
-    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="8"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="8"/>
-    </row>
-    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="8"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="8"/>
-    </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="8"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="8"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="20"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="20"/>
-    </row>
-    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="8"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="8"/>
-    </row>
-    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="8"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="8"/>
-    </row>
-    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="8"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="8"/>
-    </row>
-    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="8"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="8"/>
-    </row>
-    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="8"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="8"/>
-    </row>
-    <row r="71" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="20"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="20"/>
-    </row>
-    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="8"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="8"/>
-    </row>
-    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="8"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="8"/>
-    </row>
-    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="8"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="8"/>
-    </row>
-    <row r="77" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="20"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="20"/>
-    </row>
-    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="8"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="8"/>
-    </row>
-    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="8"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="8"/>
-    </row>
-    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="8"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="8"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="20"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
-      <c r="F83" s="20"/>
-    </row>
-    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="8"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="8"/>
-    </row>
-    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="8"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="8"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="20"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
-      <c r="F88" s="20"/>
+      <c r="E18" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E84:E87 D71:E77 E78:E82 E1:E22">
-    <cfRule type="cellIs" dxfId="69" priority="66" operator="equal">
+  <conditionalFormatting sqref="E1:E14">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E86:E87 E80:E82">
-    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E14">
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="66" priority="69" operator="equal">
+  <conditionalFormatting sqref="E16:E17 E20:E22">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+      <formula>"nok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E22">
-    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
+  <conditionalFormatting sqref="E20:E22">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41:E44">
-    <cfRule type="cellIs" dxfId="63" priority="60" operator="equal">
+  <conditionalFormatting sqref="E18:E19">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
-      <formula>"NOK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="64" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43:E44">
-    <cfRule type="cellIs" dxfId="59" priority="62" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24:E27">
-    <cfRule type="cellIs" dxfId="58" priority="55" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="56" operator="equal">
-      <formula>"nok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
-      <formula>"NOK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="59" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="54" priority="57" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:E30">
-    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
-      <formula>"nok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
-      <formula>"NOK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36:E37">
-    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
-      <formula>"nok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
-      <formula>"NOK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45 E50">
-    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
-      <formula>"nok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E47 E49">
-    <cfRule type="cellIs" dxfId="43" priority="40" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="41" operator="equal">
-      <formula>"nok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
-      <formula>"NOK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51:E54">
-    <cfRule type="cellIs" dxfId="38" priority="35" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="36" operator="equal">
-      <formula>"nok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
-      <formula>"NOK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53:E54">
-    <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56:E63">
-    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
-      <formula>"nok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
-      <formula>"NOK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58:E63">
-    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
-      <formula>"nok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:E70">
-    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
-      <formula>"nok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
-      <formula>"NOK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E70">
-    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72:E76">
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
-      <formula>"nok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
-      <formula>"NOK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74:E76">
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
-      <formula>"NOK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
-      <formula>"NOK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
-      <formula>"nok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
-      <formula>"nok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E34">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>"nok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E34">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E39">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"nok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E39">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"nok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+  <conditionalFormatting sqref="E18:E19">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Testformular BB-Test.xlsx
+++ b/Testformular BB-Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="88">
   <si>
     <t>Testfall 1:</t>
   </si>
@@ -500,31 +500,6 @@
   </si>
   <si>
     <t>Modify single field englisch</t>
-  </si>
-  <si>
-    <t>KAT Felder werden nicht rot umrandet</t>
-  </si>
-  <si>
-    <t>Suchfilter ist weg, Kat filter weg</t>
-  </si>
-  <si>
-    <t>Eingabe von Text Kat2: Leere Maske!
-PHP Fatal error:  Uncaught TypeError: Cannot access offset of type string on string in C:\xampp\htdocs\dsvpage\wp-content\themes\astra-child\template-editmeta-sharedfiles copy.php:409</t>
-  </si>
-  <si>
-    <t>Bei der Durchführung von Änderungen wird das Einzelnes Feld bearbeiten" entfernt</t>
-  </si>
-  <si>
-    <t>Bei der Durchführung von Änderungen wird das "Nur Kategorien bearbeiten" entfernt</t>
-  </si>
-  <si>
-    <t>Bei der Durchführung von Änderungen wird die gewählte Kategorie und der Suchtext  entfernt</t>
-  </si>
-  <si>
-    <t>siehe letzte Felder</t>
-  </si>
-  <si>
-    <t>Es wird die Seite anscheinend neu geladen</t>
   </si>
 </sst>
 </file>
@@ -723,7 +698,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="127">
+  <dxfs count="138">
     <dxf>
       <fill>
         <patternFill>
@@ -840,26 +815,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
@@ -868,21 +823,21 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -915,26 +870,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -962,6 +897,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1036,26 +991,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1083,6 +1018,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1110,6 +1065,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1210,26 +1185,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
@@ -1237,6 +1192,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
@@ -1291,189 +1266,290 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2175,7 +2251,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2834,170 +2910,170 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="E1:E16 E20:E22 E27:E31 E48">
-    <cfRule type="cellIs" dxfId="126" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="169" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="170" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E22 E27:E31 E48">
-    <cfRule type="cellIs" dxfId="124" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="168" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="123" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="255" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="256" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E16">
-    <cfRule type="cellIs" dxfId="121" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="185" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:E53">
-    <cfRule type="cellIs" dxfId="120" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="152" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50:E53">
-    <cfRule type="cellIs" dxfId="119" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="150" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="151" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="117" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="153" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="154" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="cellIs" dxfId="115" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="145" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="146" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="113" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="148" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="149" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E26">
-    <cfRule type="cellIs" dxfId="111" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="140" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="141" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="109" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="143" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="144" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44:E45">
-    <cfRule type="cellIs" dxfId="107" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="135" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="136" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="105" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="138" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="139" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="103" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="133" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="134" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="101" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="17" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="18" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="99" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="16" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:E42">
-    <cfRule type="cellIs" dxfId="98" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="11" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="12" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:E42">
-    <cfRule type="cellIs" dxfId="96" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="10" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:E47">
-    <cfRule type="cellIs" dxfId="95" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="7" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="8" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:E47">
-    <cfRule type="cellIs" dxfId="93" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="9" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="92" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="6" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="91" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="4" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="5" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="89" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="2" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="3" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="87" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3010,8 +3086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3156,11 +3232,9 @@
         <v>28</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>88</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
@@ -3260,11 +3334,9 @@
         <v>28</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>89</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="8" t="s">
@@ -3280,11 +3352,9 @@
         <v>28</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>89</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
@@ -3332,7 +3402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="73.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="59" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
         <v>40</v>
@@ -3344,11 +3414,9 @@
         <v>28</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>90</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -3378,11 +3446,9 @@
         <v>28</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
@@ -3396,11 +3462,9 @@
         <v>28</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>92</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -3414,11 +3478,9 @@
         <v>28</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>91</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
@@ -3432,11 +3494,9 @@
         <v>28</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>94</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
@@ -3604,11 +3664,9 @@
         <v>56</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>95</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F46" s="8"/>
     </row>
     <row r="47" spans="1:6" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="8"/>
@@ -3672,11 +3730,9 @@
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>95</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F52" s="8"/>
     </row>
     <row r="53" spans="1:6" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="8"/>
@@ -3710,208 +3766,221 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E16 E20 E27:E28 E48 E22 E31">
+    <cfRule type="cellIs" dxfId="97" priority="66" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="67" operator="equal">
+      <formula>"nok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20 E27:E28 E48 E22 E31">
+    <cfRule type="cellIs" dxfId="95" priority="65" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="94" priority="69" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="70" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E16">
+    <cfRule type="cellIs" dxfId="92" priority="68" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50:E51">
+    <cfRule type="cellIs" dxfId="91" priority="60" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="61" operator="equal">
+      <formula>"nok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="89" priority="63" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="64" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E19">
+    <cfRule type="cellIs" dxfId="87" priority="56" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="86" priority="57" operator="equal">
+      <formula>"nok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="85" priority="58" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="59" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:E26">
+    <cfRule type="cellIs" dxfId="83" priority="52" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="53" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20 E27:E28 E48 E22 E31">
-    <cfRule type="cellIs" dxfId="84" priority="56" operator="equal">
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="81" priority="54" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="55" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44:E45">
+    <cfRule type="cellIs" dxfId="79" priority="48" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="49" operator="equal">
+      <formula>"nok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="77" priority="50" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="51" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="75" priority="46" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="47" operator="equal">
+      <formula>"nok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34:E42">
+    <cfRule type="cellIs" dxfId="73" priority="41" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="42" operator="equal">
+      <formula>"nok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34:E42">
+    <cfRule type="cellIs" dxfId="71" priority="40" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="83" priority="60" operator="equal">
-      <formula>"NOK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="61" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E16">
-    <cfRule type="cellIs" dxfId="81" priority="59" operator="equal">
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="70" priority="37" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="38" operator="equal">
+      <formula>"nok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="68" priority="39" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50:E51">
-    <cfRule type="cellIs" dxfId="79" priority="51" operator="equal">
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="67" priority="36" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="66" priority="34" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="35" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="77" priority="54" operator="equal">
-      <formula>"NOK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="55" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18:E19">
-    <cfRule type="cellIs" dxfId="75" priority="47" operator="equal">
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="64" priority="32" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="33" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="73" priority="49" operator="equal">
-      <formula>"NOK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="50" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24:E26">
-    <cfRule type="cellIs" dxfId="71" priority="43" operator="equal">
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="62" priority="31" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="61" priority="29" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="30" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="69" priority="45" operator="equal">
-      <formula>"NOK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="46" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44:E45">
-    <cfRule type="cellIs" dxfId="67" priority="39" operator="equal">
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="59" priority="28" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="58" priority="26" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="27" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="65" priority="41" operator="equal">
-      <formula>"NOK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="42" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="63" priority="37" operator="equal">
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="56" priority="25" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="55" priority="23" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="24" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34:E42">
-    <cfRule type="cellIs" dxfId="61" priority="32" operator="equal">
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="53" priority="22" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="46" priority="10" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="11" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34:E42">
-    <cfRule type="cellIs" dxfId="59" priority="31" operator="equal">
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="44" priority="12" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E47">
-    <cfRule type="cellIs" dxfId="58" priority="28" operator="equal">
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E47">
-    <cfRule type="cellIs" dxfId="56" priority="30" operator="equal">
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="55" priority="27" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="54" priority="25" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="26" operator="equal">
-      <formula>"nok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="52" priority="23" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="24" operator="equal">
-      <formula>"nok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="50" priority="22" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="49" priority="20" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="21" operator="equal">
-      <formula>"nok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="47" priority="19" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="46" priority="17" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="18" operator="equal">
-      <formula>"nok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="44" priority="16" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="43" priority="14" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="15" operator="equal">
-      <formula>"nok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="41" priority="13" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="40" priority="8" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
-      <formula>"nok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
+  <conditionalFormatting sqref="E46">
     <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -3919,12 +3988,12 @@
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
+  <conditionalFormatting sqref="E46">
     <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
+  <conditionalFormatting sqref="E52">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -3932,7 +4001,7 @@
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
+  <conditionalFormatting sqref="E52">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>""</formula>
     </cfRule>
@@ -4215,57 +4284,57 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E14">
-    <cfRule type="cellIs" dxfId="37" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="69" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="70" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="35" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="72" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="73" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E14">
-    <cfRule type="cellIs" dxfId="33" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="71" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E17 E20:E22">
-    <cfRule type="cellIs" dxfId="32" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="58" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="59" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="30" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="61" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="62" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E22">
-    <cfRule type="cellIs" dxfId="28" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="60" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4572,57 +4641,57 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E14">
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="9" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="10" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E14">
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E17 E20:E22">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E22">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
